--- a/Additional_file_6/Additional_file_6d.xlsx
+++ b/Additional_file_6/Additional_file_6d.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thordis\Documents\GitHub\Lbreuteri\Article\Supplementary_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thordis\Documents\GitHub\Lbreuteri\Article\Supplementary_Data\Additional_file_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165AAC20-70C1-43B7-8AFD-1327C0610C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BDF921-B75C-408D-A0A8-2AA35C4490A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10170" xr2:uid="{9787AFC0-401A-44E4-9D40-DC9F0F41B4DA}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28980" windowHeight="16380" xr2:uid="{9787AFC0-401A-44E4-9D40-DC9F0F41B4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" r:id="rId1"/>
     <sheet name="Metabolites" sheetId="2" r:id="rId2"/>
     <sheet name="Genes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8698" uniqueCount="7328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8815" uniqueCount="7408">
   <si>
     <t>QUIND</t>
   </si>
@@ -22016,6 +22017,246 @@
   </si>
   <si>
     <t>(R)-Propane-1,2-diol exchange</t>
+  </si>
+  <si>
+    <t>6.1.1.7</t>
+  </si>
+  <si>
+    <t>1.2.1.3</t>
+  </si>
+  <si>
+    <t>6.1.1.22</t>
+  </si>
+  <si>
+    <t>1.1.1.100</t>
+  </si>
+  <si>
+    <t>1.3.1.10</t>
+  </si>
+  <si>
+    <t>6.1.1.19</t>
+  </si>
+  <si>
+    <t>1.1.1.202</t>
+  </si>
+  <si>
+    <t>2.5.1.15</t>
+  </si>
+  <si>
+    <t>2.3.1.89</t>
+  </si>
+  <si>
+    <t>2.3.1.41</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>2.7.8.13</t>
+  </si>
+  <si>
+    <t>4.2.99.10</t>
+  </si>
+  <si>
+    <t>4.1.1.22</t>
+  </si>
+  <si>
+    <t>1.1.1.94</t>
+  </si>
+  <si>
+    <t>1.1.1.90</t>
+  </si>
+  <si>
+    <t>6.3.2.16</t>
+  </si>
+  <si>
+    <t>3.2.1.148</t>
+  </si>
+  <si>
+    <t>2.7.7.9</t>
+  </si>
+  <si>
+    <t>4.1.2.25</t>
+  </si>
+  <si>
+    <t>5.1.3.3</t>
+  </si>
+  <si>
+    <t>2.4.2.2</t>
+  </si>
+  <si>
+    <t>6.1.1.5</t>
+  </si>
+  <si>
+    <t>6.1.1.4</t>
+  </si>
+  <si>
+    <t>6.1.1.14</t>
+  </si>
+  <si>
+    <t>3.2.1.23</t>
+  </si>
+  <si>
+    <t>2.7.1.16</t>
+  </si>
+  <si>
+    <t>1.3.1.14</t>
+  </si>
+  <si>
+    <t>2.1.1.79</t>
+  </si>
+  <si>
+    <t>2.1.2.9</t>
+  </si>
+  <si>
+    <t>6.3.4.3</t>
+  </si>
+  <si>
+    <t>6.1.1.9</t>
+  </si>
+  <si>
+    <t>4.2.1.58</t>
+  </si>
+  <si>
+    <t>2.7.8.7</t>
+  </si>
+  <si>
+    <t>6.1.1.15</t>
+  </si>
+  <si>
+    <t>2.1.1.14</t>
+  </si>
+  <si>
+    <t>1.1.1.42</t>
+  </si>
+  <si>
+    <t>3.2.2.1</t>
+  </si>
+  <si>
+    <t>6.3.2.6</t>
+  </si>
+  <si>
+    <t>6.1.1.1</t>
+  </si>
+  <si>
+    <t>4.1.1.21</t>
+  </si>
+  <si>
+    <t>3.2.2.8</t>
+  </si>
+  <si>
+    <t>6.3.2.2</t>
+  </si>
+  <si>
+    <t>4.2.1.52</t>
+  </si>
+  <si>
+    <t>3.5.3.6</t>
+  </si>
+  <si>
+    <t>2.7.1.6</t>
+  </si>
+  <si>
+    <t>3.6.1.27</t>
+  </si>
+  <si>
+    <t>6.1.1.11</t>
+  </si>
+  <si>
+    <t>3.2.1.86</t>
+  </si>
+  <si>
+    <t>3.6.1.7</t>
+  </si>
+  <si>
+    <t>6.3.3.2</t>
+  </si>
+  <si>
+    <t>2.7.1.36</t>
+  </si>
+  <si>
+    <t>2.3.1.31</t>
+  </si>
+  <si>
+    <t>6.1.1.16</t>
+  </si>
+  <si>
+    <t>6.1.1.12</t>
+  </si>
+  <si>
+    <t>6.1.1.6</t>
+  </si>
+  <si>
+    <t>6.1.1.2</t>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+  </si>
+  <si>
+    <t>2.4.1.8</t>
+  </si>
+  <si>
+    <t>1.8.1.7</t>
+  </si>
+  <si>
+    <t>1.6.5.3</t>
+  </si>
+  <si>
+    <t>3.2.1.22</t>
+  </si>
+  <si>
+    <t>2.7.7.3</t>
+  </si>
+  <si>
+    <t>4.2.1.70</t>
+  </si>
+  <si>
+    <t>6.1.1.3</t>
+  </si>
+  <si>
+    <t>2.7.1.66</t>
+  </si>
+  <si>
+    <t>3.5.4.25</t>
+  </si>
+  <si>
+    <t>4.1.2.9</t>
+  </si>
+  <si>
+    <t>2.7.7.24</t>
+  </si>
+  <si>
+    <t>2.7.1.21</t>
+  </si>
+  <si>
+    <t>6.1.1.21</t>
+  </si>
+  <si>
+    <t>3.5.1.47</t>
+  </si>
+  <si>
+    <t>2.6.1.30</t>
+  </si>
+  <si>
+    <t>3.6.1.11</t>
+  </si>
+  <si>
+    <t>2.7.6.3</t>
+  </si>
+  <si>
+    <t>6.1.1.20</t>
+  </si>
+  <si>
+    <t>2.3.1.35</t>
+  </si>
+  <si>
+    <t>3.2.1.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.3.14,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undetermined,  </t>
   </si>
 </sst>
 </file>
@@ -22384,8 +22625,8 @@
   <dimension ref="A1:H2046"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A698" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F712" sqref="F712"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H623" sqref="H623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22464,6 +22705,9 @@
       <c r="F3">
         <v>1000</v>
       </c>
+      <c r="G3" t="s">
+        <v>7328</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -22619,6 +22863,9 @@
       <c r="F10">
         <v>1000</v>
       </c>
+      <c r="G10" t="s">
+        <v>7330</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -22728,6 +22975,9 @@
       <c r="F15">
         <v>1000</v>
       </c>
+      <c r="G15" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -22983,6 +23233,9 @@
       <c r="F27">
         <v>1000</v>
       </c>
+      <c r="G27" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -23066,6 +23319,9 @@
       <c r="F31">
         <v>1000</v>
       </c>
+      <c r="G31" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -23109,6 +23365,9 @@
       <c r="F33">
         <v>1000</v>
       </c>
+      <c r="G33" t="s">
+        <v>7333</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -23215,6 +23474,9 @@
       <c r="F38">
         <v>1000</v>
       </c>
+      <c r="G38" t="s">
+        <v>7334</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -23258,6 +23520,9 @@
       <c r="F40">
         <v>1000</v>
       </c>
+      <c r="G40" t="s">
+        <v>7335</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -23321,6 +23586,9 @@
       <c r="F43">
         <v>1000</v>
       </c>
+      <c r="G43" t="s">
+        <v>7336</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -23387,6 +23655,9 @@
       <c r="F46">
         <v>1000</v>
       </c>
+      <c r="G46" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -23430,6 +23701,9 @@
       <c r="F48">
         <v>1000</v>
       </c>
+      <c r="G48" t="s">
+        <v>7338</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -23473,6 +23747,9 @@
       <c r="F50">
         <v>1000</v>
       </c>
+      <c r="G50" t="s">
+        <v>7339</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -23533,6 +23810,9 @@
       <c r="F53">
         <v>1000</v>
       </c>
+      <c r="G53" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -23728,6 +24008,9 @@
       <c r="F62">
         <v>1000</v>
       </c>
+      <c r="G62" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -23771,6 +24054,9 @@
       <c r="F64">
         <v>1000</v>
       </c>
+      <c r="G64" t="s">
+        <v>7340</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -23817,6 +24103,9 @@
       <c r="F66">
         <v>1000</v>
       </c>
+      <c r="G66" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -24029,6 +24318,9 @@
       <c r="F76">
         <v>1000</v>
       </c>
+      <c r="G76" t="s">
+        <v>7341</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -24092,6 +24384,9 @@
       <c r="F79">
         <v>1000</v>
       </c>
+      <c r="G79" t="s">
+        <v>7342</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -24135,6 +24430,9 @@
       <c r="F81">
         <v>1000</v>
       </c>
+      <c r="G81" t="s">
+        <v>7343</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -24155,6 +24453,9 @@
       <c r="F82">
         <v>1000</v>
       </c>
+      <c r="G82" t="s">
+        <v>7344</v>
+      </c>
       <c r="H82" t="s">
         <v>2667</v>
       </c>
@@ -24238,6 +24539,9 @@
       <c r="F86">
         <v>1000</v>
       </c>
+      <c r="G86" t="s">
+        <v>7345</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -24258,6 +24562,9 @@
       <c r="F87">
         <v>1000</v>
       </c>
+      <c r="G87" t="s">
+        <v>2482</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -24324,6 +24631,9 @@
       <c r="F90">
         <v>1000</v>
       </c>
+      <c r="G90" t="s">
+        <v>7346</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -24364,6 +24674,9 @@
       <c r="F92">
         <v>1000</v>
       </c>
+      <c r="G92" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -24427,6 +24740,9 @@
       <c r="F95">
         <v>1000</v>
       </c>
+      <c r="G95" t="s">
+        <v>7347</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -24487,6 +24803,9 @@
       <c r="F98">
         <v>1000</v>
       </c>
+      <c r="G98" t="s">
+        <v>7348</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -24584,6 +24903,9 @@
       <c r="F103">
         <v>1000</v>
       </c>
+      <c r="G103" t="s">
+        <v>7349</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -24604,6 +24926,9 @@
       <c r="F104">
         <v>1000</v>
       </c>
+      <c r="G104" t="s">
+        <v>7350</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -24667,6 +24992,9 @@
       <c r="F107">
         <v>1000</v>
       </c>
+      <c r="G107" t="s">
+        <v>7351</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -24776,6 +25104,9 @@
       <c r="F112">
         <v>1000</v>
       </c>
+      <c r="G112" t="s">
+        <v>7352</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -24842,6 +25173,9 @@
       <c r="F115">
         <v>1000</v>
       </c>
+      <c r="G115" t="s">
+        <v>7353</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -25169,6 +25503,9 @@
       <c r="F130">
         <v>1000</v>
       </c>
+      <c r="G130" t="s">
+        <v>7354</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -25381,6 +25718,9 @@
       <c r="F140">
         <v>1000</v>
       </c>
+      <c r="G140" t="s">
+        <v>2495</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -25464,6 +25804,9 @@
       <c r="F144">
         <v>1000</v>
       </c>
+      <c r="G144" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -25484,6 +25827,9 @@
       <c r="F145">
         <v>1000</v>
       </c>
+      <c r="G145" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -25567,6 +25913,9 @@
       <c r="F149">
         <v>1000</v>
       </c>
+      <c r="G149" t="s">
+        <v>7355</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -25719,6 +26068,9 @@
       <c r="F156">
         <v>1000</v>
       </c>
+      <c r="G156" t="s">
+        <v>7356</v>
+      </c>
       <c r="H156" t="s">
         <v>2670</v>
       </c>
@@ -25805,6 +26157,9 @@
       <c r="F160">
         <v>1000</v>
       </c>
+      <c r="G160" t="s">
+        <v>7357</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -25825,6 +26180,9 @@
       <c r="F161">
         <v>1000</v>
       </c>
+      <c r="G161" t="s">
+        <v>7358</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -26046,6 +26404,9 @@
       <c r="F171">
         <v>1000</v>
       </c>
+      <c r="G171" t="s">
+        <v>7359</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -26066,6 +26427,9 @@
       <c r="F172">
         <v>1000</v>
       </c>
+      <c r="G172" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -26086,6 +26450,9 @@
       <c r="F173">
         <v>1000</v>
       </c>
+      <c r="G173" t="s">
+        <v>7361</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -26149,6 +26516,9 @@
       <c r="F176">
         <v>1000</v>
       </c>
+      <c r="G176" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -26421,6 +26791,9 @@
       <c r="F189">
         <v>1000</v>
       </c>
+      <c r="G189" t="s">
+        <v>7332</v>
+      </c>
       <c r="H189" t="s">
         <v>2671</v>
       </c>
@@ -26507,6 +26880,9 @@
       <c r="F193">
         <v>1000</v>
       </c>
+      <c r="G193" t="s">
+        <v>2495</v>
+      </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -26550,6 +26926,9 @@
       <c r="F195">
         <v>1000</v>
       </c>
+      <c r="G195" t="s">
+        <v>2495</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -26593,6 +26972,9 @@
       <c r="F197">
         <v>1000</v>
       </c>
+      <c r="G197" t="s">
+        <v>2495</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -26656,6 +27038,9 @@
       <c r="F200">
         <v>1000</v>
       </c>
+      <c r="G200" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -26796,6 +27181,9 @@
       <c r="F207">
         <v>1000</v>
       </c>
+      <c r="G207" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -26859,6 +27247,9 @@
       <c r="F210">
         <v>1000</v>
       </c>
+      <c r="G210" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -26922,6 +27313,9 @@
       <c r="F213">
         <v>1000</v>
       </c>
+      <c r="G213" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -26988,6 +27382,9 @@
       <c r="F216">
         <v>1000</v>
       </c>
+      <c r="G216" t="s">
+        <v>7362</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -27031,6 +27428,9 @@
       <c r="F218">
         <v>1000</v>
       </c>
+      <c r="G218" t="s">
+        <v>7363</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -27114,6 +27514,9 @@
       <c r="F222">
         <v>1000</v>
       </c>
+      <c r="G222" t="s">
+        <v>7364</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -27217,6 +27620,9 @@
       <c r="F227">
         <v>1000</v>
       </c>
+      <c r="G227" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -27633,6 +28039,9 @@
       <c r="F246">
         <v>1000</v>
       </c>
+      <c r="G246" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -27676,6 +28085,9 @@
       <c r="F248">
         <v>1000</v>
       </c>
+      <c r="G248" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -27811,6 +28223,9 @@
       <c r="F254">
         <v>1000</v>
       </c>
+      <c r="G254" t="s">
+        <v>7365</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -28579,6 +28994,9 @@
       <c r="F290">
         <v>1000</v>
       </c>
+      <c r="G290" t="s">
+        <v>7366</v>
+      </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
@@ -28866,6 +29284,9 @@
       <c r="F303">
         <v>1000</v>
       </c>
+      <c r="G303" t="s">
+        <v>7367</v>
+      </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
@@ -29018,6 +29439,9 @@
       <c r="F310">
         <v>1000</v>
       </c>
+      <c r="G310" t="s">
+        <v>7368</v>
+      </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
@@ -29301,6 +29725,9 @@
       <c r="F324">
         <v>1000</v>
       </c>
+      <c r="G324" t="s">
+        <v>7349</v>
+      </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
@@ -29364,6 +29791,9 @@
       <c r="F327">
         <v>1000</v>
       </c>
+      <c r="G327" t="s">
+        <v>7365</v>
+      </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
@@ -29493,6 +29923,9 @@
       <c r="F333">
         <v>1000</v>
       </c>
+      <c r="G333" t="s">
+        <v>7369</v>
+      </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -29556,6 +29989,9 @@
       <c r="F336">
         <v>1000</v>
       </c>
+      <c r="G336" t="s">
+        <v>7354</v>
+      </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
@@ -29662,6 +30098,9 @@
       <c r="F341">
         <v>1000</v>
       </c>
+      <c r="G341" t="s">
+        <v>7406</v>
+      </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
@@ -29771,6 +30210,9 @@
       <c r="F346">
         <v>1000</v>
       </c>
+      <c r="G346" t="s">
+        <v>7365</v>
+      </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -30425,6 +30867,9 @@
       <c r="F376">
         <v>1000</v>
       </c>
+      <c r="G376" t="s">
+        <v>7370</v>
+      </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
@@ -30445,6 +30890,9 @@
       <c r="F377">
         <v>1000</v>
       </c>
+      <c r="G377" t="s">
+        <v>7371</v>
+      </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
@@ -30465,6 +30913,9 @@
       <c r="F378">
         <v>1000</v>
       </c>
+      <c r="G378" t="s">
+        <v>7372</v>
+      </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
@@ -30580,6 +31031,9 @@
       <c r="F383">
         <v>1000</v>
       </c>
+      <c r="G383" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
@@ -30646,6 +31100,9 @@
       <c r="F386">
         <v>1000</v>
       </c>
+      <c r="G386" t="s">
+        <v>7373</v>
+      </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -30663,6 +31120,9 @@
       <c r="F387">
         <v>1000</v>
       </c>
+      <c r="G387" t="s">
+        <v>7374</v>
+      </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
@@ -30766,6 +31226,9 @@
       <c r="F392">
         <v>1000</v>
       </c>
+      <c r="G392" t="s">
+        <v>7375</v>
+      </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
@@ -30786,6 +31249,9 @@
       <c r="F393">
         <v>1000</v>
       </c>
+      <c r="G393" t="s">
+        <v>7376</v>
+      </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
@@ -30889,6 +31355,9 @@
       <c r="F398">
         <v>1000</v>
       </c>
+      <c r="G398" t="s">
+        <v>7377</v>
+      </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
@@ -30909,6 +31378,9 @@
       <c r="F399">
         <v>1000</v>
       </c>
+      <c r="G399" t="s">
+        <v>7365</v>
+      </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
@@ -30949,6 +31421,9 @@
       <c r="F401">
         <v>1000</v>
       </c>
+      <c r="G401" t="s">
+        <v>7378</v>
+      </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
@@ -31066,6 +31541,9 @@
       <c r="F407">
         <v>1000</v>
       </c>
+      <c r="G407" t="s">
+        <v>7379</v>
+      </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
@@ -31109,6 +31587,9 @@
       <c r="F409">
         <v>1000</v>
       </c>
+      <c r="G409" t="s">
+        <v>7380</v>
+      </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
@@ -31152,6 +31633,9 @@
       <c r="F411">
         <v>1000</v>
       </c>
+      <c r="G411" t="s">
+        <v>7381</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -31281,6 +31765,9 @@
       <c r="F417">
         <v>1000</v>
       </c>
+      <c r="G417" t="s">
+        <v>7407</v>
+      </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
@@ -31720,6 +32207,9 @@
       <c r="F437">
         <v>1000</v>
       </c>
+      <c r="G437" t="s">
+        <v>7382</v>
+      </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
@@ -31935,6 +32425,9 @@
       <c r="F447">
         <v>1000</v>
       </c>
+      <c r="G447" t="s">
+        <v>7383</v>
+      </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
@@ -31955,6 +32448,9 @@
       <c r="F448">
         <v>1000</v>
       </c>
+      <c r="G448" t="s">
+        <v>7384</v>
+      </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
@@ -31975,6 +32471,9 @@
       <c r="F449">
         <v>1000</v>
       </c>
+      <c r="G449" t="s">
+        <v>7385</v>
+      </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
@@ -32204,6 +32703,9 @@
       <c r="F460">
         <v>1000</v>
       </c>
+      <c r="G460" t="s">
+        <v>7386</v>
+      </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
@@ -32247,6 +32749,9 @@
       <c r="F462">
         <v>1000</v>
       </c>
+      <c r="G462" t="s">
+        <v>7387</v>
+      </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
@@ -32313,6 +32818,9 @@
       <c r="F465">
         <v>1000</v>
       </c>
+      <c r="G465" t="s">
+        <v>7388</v>
+      </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
@@ -32356,6 +32864,9 @@
       <c r="F467">
         <v>1000</v>
       </c>
+      <c r="G467" t="s">
+        <v>7389</v>
+      </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
@@ -32376,6 +32887,9 @@
       <c r="F468">
         <v>1000</v>
       </c>
+      <c r="G468" t="s">
+        <v>7390</v>
+      </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
@@ -32442,6 +32956,9 @@
       <c r="F471">
         <v>1000</v>
       </c>
+      <c r="G471" t="s">
+        <v>7391</v>
+      </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
@@ -32548,6 +33065,9 @@
       <c r="F476">
         <v>1000</v>
       </c>
+      <c r="G476" t="s">
+        <v>7392</v>
+      </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
@@ -32568,6 +33088,9 @@
       <c r="F477">
         <v>1000</v>
       </c>
+      <c r="G477" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
@@ -32608,6 +33131,9 @@
       <c r="F479">
         <v>1000</v>
       </c>
+      <c r="G479" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
@@ -32628,6 +33154,9 @@
       <c r="F480">
         <v>1000</v>
       </c>
+      <c r="G480" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
@@ -32648,6 +33177,9 @@
       <c r="F481">
         <v>1000</v>
       </c>
+      <c r="G481" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
@@ -32668,6 +33200,9 @@
       <c r="F482">
         <v>1000</v>
       </c>
+      <c r="G482" t="s">
+        <v>7337</v>
+      </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
@@ -32751,6 +33286,9 @@
       <c r="F486">
         <v>1000</v>
       </c>
+      <c r="G486" t="s">
+        <v>7329</v>
+      </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
@@ -32791,6 +33329,9 @@
       <c r="F488">
         <v>1000</v>
       </c>
+      <c r="G488" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
@@ -33055,6 +33596,9 @@
       <c r="F500">
         <v>1000</v>
       </c>
+      <c r="G500" t="s">
+        <v>7393</v>
+      </c>
       <c r="H500" t="s">
         <v>2679</v>
       </c>
@@ -33124,6 +33668,9 @@
       <c r="F503">
         <v>1000</v>
       </c>
+      <c r="G503" t="s">
+        <v>7394</v>
+      </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
@@ -33187,6 +33734,9 @@
       <c r="F506">
         <v>1000</v>
       </c>
+      <c r="G506" t="s">
+        <v>7395</v>
+      </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
@@ -33230,6 +33780,9 @@
       <c r="F508">
         <v>1000</v>
       </c>
+      <c r="G508" t="s">
+        <v>7332</v>
+      </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
@@ -33270,6 +33823,9 @@
       <c r="F510">
         <v>1000</v>
       </c>
+      <c r="G510" t="s">
+        <v>7396</v>
+      </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
@@ -33310,6 +33866,9 @@
       <c r="F512">
         <v>1000</v>
       </c>
+      <c r="G512" t="s">
+        <v>7397</v>
+      </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
@@ -33505,6 +34064,9 @@
       <c r="F521">
         <v>1000</v>
       </c>
+      <c r="G521" t="s">
+        <v>7331</v>
+      </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
@@ -33545,6 +34107,9 @@
       <c r="F523">
         <v>1000</v>
       </c>
+      <c r="G523" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
@@ -33605,6 +34170,9 @@
       <c r="F526">
         <v>1000</v>
       </c>
+      <c r="G526" t="s">
+        <v>7360</v>
+      </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
@@ -33625,6 +34193,9 @@
       <c r="F527">
         <v>1000</v>
       </c>
+      <c r="G527" t="s">
+        <v>7398</v>
+      </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
@@ -33780,6 +34351,9 @@
       <c r="F534">
         <v>1000</v>
       </c>
+      <c r="G534" t="s">
+        <v>7399</v>
+      </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
@@ -33998,6 +34572,9 @@
       <c r="F544">
         <v>1000</v>
       </c>
+      <c r="G544" t="s">
+        <v>7400</v>
+      </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
@@ -34204,6 +34781,9 @@
       <c r="F554">
         <v>1000</v>
       </c>
+      <c r="G554" t="s">
+        <v>7401</v>
+      </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
@@ -34353,6 +34933,9 @@
       <c r="F561">
         <v>1000</v>
       </c>
+      <c r="G561" t="s">
+        <v>7402</v>
+      </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
@@ -34373,6 +34956,9 @@
       <c r="F562">
         <v>1000</v>
       </c>
+      <c r="G562" t="s">
+        <v>7403</v>
+      </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
@@ -36093,9 +36679,6 @@
       <c r="F657">
         <v>2</v>
       </c>
-      <c r="G657" t="s">
-        <v>2638</v>
-      </c>
       <c r="H657" t="s">
         <v>2684</v>
       </c>
@@ -36139,9 +36722,6 @@
       <c r="F659">
         <v>1000</v>
       </c>
-      <c r="G659" t="s">
-        <v>7303</v>
-      </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
@@ -36159,9 +36739,6 @@
       <c r="F660">
         <v>1000</v>
       </c>
-      <c r="G660" t="s">
-        <v>2647</v>
-      </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
@@ -36180,7 +36757,7 @@
         <v>1000</v>
       </c>
       <c r="G661" t="s">
-        <v>2651</v>
+        <v>2638</v>
       </c>
       <c r="H661" t="s">
         <v>2685</v>
@@ -36205,9 +36782,6 @@
       <c r="F662">
         <v>1000</v>
       </c>
-      <c r="G662" t="s">
-        <v>7304</v>
-      </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
@@ -36225,6 +36799,9 @@
       <c r="F663">
         <v>1000</v>
       </c>
+      <c r="G663" t="s">
+        <v>7303</v>
+      </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
@@ -36245,6 +36822,9 @@
       <c r="F664">
         <v>1000</v>
       </c>
+      <c r="G664" t="s">
+        <v>2647</v>
+      </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
@@ -36266,7 +36846,7 @@
         <v>1000</v>
       </c>
       <c r="G665" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
@@ -36288,6 +36868,9 @@
       <c r="F666">
         <v>1000</v>
       </c>
+      <c r="G666" t="s">
+        <v>7304</v>
+      </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
@@ -36308,9 +36891,6 @@
       <c r="F667">
         <v>1000</v>
       </c>
-      <c r="G667" t="s">
-        <v>2656</v>
-      </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
@@ -36328,9 +36908,6 @@
       <c r="F668">
         <v>1000</v>
       </c>
-      <c r="G668" t="s">
-        <v>2657</v>
-      </c>
       <c r="H668" t="s">
         <v>2686</v>
       </c>
@@ -36352,7 +36929,7 @@
         <v>1000</v>
       </c>
       <c r="G669" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="H669" t="s">
         <v>2686</v>
@@ -36377,6 +36954,9 @@
       <c r="F670">
         <v>1000</v>
       </c>
+      <c r="G670" t="s">
+        <v>7404</v>
+      </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
@@ -36397,6 +36977,9 @@
       <c r="F671">
         <v>1000</v>
       </c>
+      <c r="G671" t="s">
+        <v>2656</v>
+      </c>
       <c r="H671" t="s">
         <v>2687</v>
       </c>
@@ -36421,7 +37004,7 @@
         <v>1000</v>
       </c>
       <c r="G672" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
       <c r="H672" t="s">
         <v>2687</v>
@@ -36443,6 +37026,9 @@
       <c r="F673">
         <v>1000</v>
       </c>
+      <c r="G673" t="s">
+        <v>2658</v>
+      </c>
       <c r="H673" t="s">
         <v>2688</v>
       </c>
@@ -36497,6 +37083,9 @@
       <c r="F676">
         <v>1000</v>
       </c>
+      <c r="G676" t="s">
+        <v>2662</v>
+      </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
@@ -36517,9 +37106,6 @@
       <c r="F677">
         <v>1000</v>
       </c>
-      <c r="G677" t="s">
-        <v>2665</v>
-      </c>
       <c r="H677" t="s">
         <v>2689</v>
       </c>
@@ -36597,6 +37183,9 @@
       <c r="F681">
         <v>1000</v>
       </c>
+      <c r="G681" t="s">
+        <v>2665</v>
+      </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
@@ -36751,6 +37340,9 @@
       <c r="F689">
         <v>1000</v>
       </c>
+      <c r="G689" t="s">
+        <v>7405</v>
+      </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
@@ -37255,6 +37847,7 @@
       <c r="G2046" s="1"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
